--- a/LArIAT_Pin_Mapping_06052018.xlsx
+++ b/LArIAT_Pin_Mapping_06052018.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="3" r:id="rId1"/>
-    <sheet name="Pictures" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -457,2086 +456,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>386995</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34363</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142623</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7684610" y="0"/>
-          <a:ext cx="3904311" cy="2809623"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>234461</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>49812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>389649</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>174146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="799407" y="-515134"/>
-          <a:ext cx="1457834" cy="2587726"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>81373</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35986</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="808652" y="1126948"/>
-          <a:ext cx="2100887" cy="3718190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>386336</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4035144" y="2115061"/>
-          <a:ext cx="3335740" cy="1683800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>515516</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>173983</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152334" y="0"/>
-          <a:ext cx="2549802" cy="1888483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>558178</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101901</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="263769" y="822114"/>
-          <a:ext cx="902544" cy="422787"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>86757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>138377</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="681404" y="1229757"/>
-          <a:ext cx="65108" cy="1928147"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>433273</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>116564</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4082081" y="1430351"/>
-          <a:ext cx="899560" cy="420448"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>310896</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>118397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>439616</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4567838" y="1832897"/>
-          <a:ext cx="128720" cy="1259065"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190385</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>128719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>308511</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84716</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="10902" t="38722" r="57553" b="30385"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3839193" y="4129219"/>
-          <a:ext cx="3766933" cy="1860997"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>520211</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>417635</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1231837">
-          <a:off x="9034096" y="1897673"/>
-          <a:ext cx="505558" cy="249115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3,2,1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80595</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>586153</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1231837">
-          <a:off x="9202614" y="1560635"/>
-          <a:ext cx="505558" cy="249115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>6,5,4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>197825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1231837">
-          <a:off x="9319844" y="1289539"/>
-          <a:ext cx="505558" cy="249115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>9,8,7</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>351690</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>249113</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1231837">
-          <a:off x="9473709" y="1011116"/>
-          <a:ext cx="505558" cy="249115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>etc</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>254689</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8179489" y="3185072"/>
-          <a:ext cx="3774386" cy="3711027"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8790333" y="5848350"/>
-          <a:ext cx="276225" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>607115</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>174763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>270427</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117613</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9187898" y="4746763"/>
-          <a:ext cx="276225" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449745</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>125067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>113057</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9643441" y="4125567"/>
-          <a:ext cx="276225" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>300658</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10107267" y="3686588"/>
-          <a:ext cx="276225" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>159854</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>436079</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>183872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11192289" y="3289022"/>
-          <a:ext cx="276225" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10197352" y="5860676"/>
-          <a:ext cx="1288677" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Uses top 3 connectors, J24, J18, J12</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9816353" y="6006353"/>
-          <a:ext cx="414618" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9816353" y="6107206"/>
-          <a:ext cx="414618" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9816353" y="6241676"/>
-          <a:ext cx="414618" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>310962</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129988</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11893362" y="2987488"/>
-          <a:ext cx="1517838" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Uses top 3 connectors, J8, J14, J20</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>496980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>151840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>306481</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>151840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Connector 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11469780" y="3390340"/>
-          <a:ext cx="419101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>496980</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>62193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>306481</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>62193</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Connector 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11469780" y="3491193"/>
-          <a:ext cx="419101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>496980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>306481</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Connector 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11469780" y="3625663"/>
-          <a:ext cx="419101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>467844</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>174251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10221444" y="5127251"/>
-          <a:ext cx="2037231" cy="244849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J5, J8, J11, J14, J17, J20, J23, J26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>429744</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="TextBox 46"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10768032" y="4593851"/>
-          <a:ext cx="2098045" cy="244849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J4, J7, J10, J13, J16, J19, J22, J25</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>239244</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>388327</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="TextBox 47"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11185667" y="4003301"/>
-          <a:ext cx="1973487" cy="244849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J3, J6, J9, J12, J15, J18, J21, J24</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>266140</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90826</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="52340"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13879046" y="0"/>
-          <a:ext cx="9986682" cy="2567326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>32797</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>42367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>241228</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96716</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="TextBox 49"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15160738" y="2137867"/>
-          <a:ext cx="2023784" cy="244849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J5, J8, J11, J14, J17, J20, J23, J26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>387074</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67796</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17935486" y="2142910"/>
-          <a:ext cx="2134249" cy="210886"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J4, J7, J10, J13, J16, J19, J22, J25</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>542666</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>86631</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107706</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20511548" y="2148857"/>
-          <a:ext cx="1964436" cy="244849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>J3, J6, J9, J12, J15, J18, J21, J24</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>427978</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>384017</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50556</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Connector 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14950802" y="1765056"/>
-          <a:ext cx="7822568" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>420651</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>376690</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50556</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14943475" y="1955556"/>
-          <a:ext cx="7822568" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>448233</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>219633</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13760821" y="2667560"/>
-          <a:ext cx="10058400" cy="1945498"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2792,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20521,24 +18440,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="O17" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>